--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70938FE8-1EF5-46B7-ACBA-02B339684289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B60AEA2-4852-4880-A016-1CBCABD57086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TaegeukTitle" sheetId="1" r:id="rId1"/>
@@ -231,14 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +252,14 @@
   </si>
   <si>
     <t>태극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -793,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2337,7 +2337,7 @@
         <v>1E+85</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C105" si="2">C74</f>
+        <f t="shared" ref="C75:C110" si="2">C74</f>
         <v>55</v>
       </c>
       <c r="D75">
@@ -2977,6 +2977,111 @@
       <c r="E105" t="str">
         <f>VLOOKUP(A105,Balance!B:I,8,FALSE)</f>
         <v>태극 104단</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <f>VLOOKUP(A106,Balance!B:C,2,FALSE)</f>
+        <v>1E+116</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D106">
+        <f>VLOOKUP(A106,Balance!B:I,7,FALSE)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E106" t="str">
+        <f>VLOOKUP(A106,Balance!B:I,8,FALSE)</f>
+        <v>태극 105단</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <f>VLOOKUP(A107,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+117</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D107">
+        <f>VLOOKUP(A107,Balance!B:I,7,FALSE)</f>
+        <v>2.4</v>
+      </c>
+      <c r="E107" t="str">
+        <f>VLOOKUP(A107,Balance!B:I,8,FALSE)</f>
+        <v>태극 106단</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <f>VLOOKUP(A108,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999997E+117</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D108">
+        <f>VLOOKUP(A108,Balance!B:I,7,FALSE)</f>
+        <v>2.48</v>
+      </c>
+      <c r="E108" t="str">
+        <f>VLOOKUP(A108,Balance!B:I,8,FALSE)</f>
+        <v>태극 107단</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <f>VLOOKUP(A109,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999994E+118</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D109">
+        <f>VLOOKUP(A109,Balance!B:I,7,FALSE)</f>
+        <v>2.56</v>
+      </c>
+      <c r="E109" t="str">
+        <f>VLOOKUP(A109,Balance!B:I,8,FALSE)</f>
+        <v>태극 108단</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <f>VLOOKUP(A110,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D110">
+        <f>VLOOKUP(A110,Balance!B:I,7,FALSE)</f>
+        <v>2.64</v>
+      </c>
+      <c r="E110" t="str">
+        <f>VLOOKUP(A110,Balance!B:I,8,FALSE)</f>
+        <v>태극 109단</v>
       </c>
     </row>
   </sheetData>
@@ -2990,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView topLeftCell="G102" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J124"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3082,10 +3187,10 @@
         <v>4</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>12</v>
@@ -3155,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>16</v>
@@ -3208,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>17</v>
@@ -3261,7 +3366,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>18</v>
@@ -3314,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>19</v>
@@ -3367,7 +3472,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>20</v>
@@ -3420,7 +3525,7 @@
         <v>6</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>21</v>
@@ -3473,7 +3578,7 @@
         <v>7</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>22</v>
@@ -3526,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>23</v>
@@ -3579,7 +3684,7 @@
         <v>9</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>24</v>
@@ -3632,7 +3737,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>25</v>
@@ -3685,7 +3790,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>26</v>
@@ -3738,7 +3843,7 @@
         <v>12</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>27</v>
@@ -3791,7 +3896,7 @@
         <v>13</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>28</v>
@@ -3844,7 +3949,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>29</v>
@@ -3897,7 +4002,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>30</v>
@@ -3950,7 +4055,7 @@
         <v>16</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>31</v>
@@ -4003,7 +4108,7 @@
         <v>17</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>32</v>
@@ -4056,7 +4161,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>33</v>
@@ -4109,7 +4214,7 @@
         <v>19</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>34</v>
@@ -4162,7 +4267,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>35</v>
@@ -4215,7 +4320,7 @@
         <v>21</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>15</v>
@@ -4268,7 +4373,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>36</v>
@@ -4321,7 +4426,7 @@
         <v>23</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>37</v>
@@ -4374,7 +4479,7 @@
         <v>24</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>38</v>
@@ -4427,7 +4532,7 @@
         <v>25</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M33" s="13" t="s">
         <v>39</v>
@@ -4488,7 +4593,7 @@
         <v>26</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M34" s="13" t="s">
         <v>40</v>
@@ -4549,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M35" s="13" t="s">
         <v>41</v>
@@ -4610,7 +4715,7 @@
         <v>28</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M36" s="13" t="s">
         <v>42</v>
@@ -4671,10 +4776,10 @@
         <v>29</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N37" s="13">
         <v>120</v>
@@ -4732,10 +4837,10 @@
         <v>30</v>
       </c>
       <c r="K38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="N38" s="13">
         <v>124</v>
@@ -4793,10 +4898,10 @@
         <v>31</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N39" s="13">
         <v>128</v>
@@ -4846,10 +4951,10 @@
         <v>32</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N40" s="13">
         <v>132</v>
@@ -4899,7 +5004,7 @@
         <v>33</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.3">
@@ -4938,7 +5043,7 @@
         <v>34</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.3">
@@ -4977,7 +5082,7 @@
         <v>35</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.3">
@@ -5016,7 +5121,7 @@
         <v>36</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.3">
@@ -5055,7 +5160,7 @@
         <v>37</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.3">
@@ -5094,7 +5199,7 @@
         <v>38</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.3">
@@ -5133,7 +5238,7 @@
         <v>39</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.3">
@@ -5172,7 +5277,7 @@
         <v>40</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -5211,7 +5316,7 @@
         <v>41</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
@@ -5250,7 +5355,7 @@
         <v>42</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
@@ -5289,7 +5394,7 @@
         <v>43</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
@@ -5328,7 +5433,7 @@
         <v>44</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
@@ -5367,7 +5472,7 @@
         <v>45</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
@@ -5406,7 +5511,7 @@
         <v>46</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
@@ -5445,7 +5550,7 @@
         <v>47</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
@@ -5484,7 +5589,7 @@
         <v>48</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
@@ -5523,7 +5628,7 @@
         <v>49</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
@@ -5562,7 +5667,7 @@
         <v>50</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
@@ -5601,7 +5706,7 @@
         <v>51</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
@@ -5640,7 +5745,7 @@
         <v>52</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
@@ -5679,7 +5784,7 @@
         <v>53</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
@@ -5718,7 +5823,7 @@
         <v>54</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
@@ -5757,7 +5862,7 @@
         <v>55</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
@@ -5796,7 +5901,7 @@
         <v>56</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
@@ -5835,7 +5940,7 @@
         <v>57</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
@@ -5874,7 +5979,7 @@
         <v>58</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
@@ -5913,7 +6018,7 @@
         <v>59</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
@@ -5952,7 +6057,7 @@
         <v>60</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
@@ -5991,7 +6096,7 @@
         <v>61</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
@@ -6030,7 +6135,7 @@
         <v>62</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
@@ -6069,7 +6174,7 @@
         <v>63</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
@@ -6108,7 +6213,7 @@
         <v>64</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
@@ -6147,7 +6252,7 @@
         <v>65</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
@@ -6186,7 +6291,7 @@
         <v>66</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
@@ -6225,7 +6330,7 @@
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
@@ -6264,7 +6369,7 @@
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
@@ -6303,7 +6408,7 @@
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
@@ -6342,7 +6447,7 @@
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
@@ -6381,7 +6486,7 @@
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
@@ -6420,7 +6525,7 @@
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
@@ -6459,7 +6564,7 @@
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
@@ -6498,7 +6603,7 @@
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
@@ -6537,7 +6642,7 @@
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
@@ -6576,7 +6681,7 @@
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
@@ -6615,7 +6720,7 @@
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
@@ -6654,7 +6759,7 @@
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
@@ -6693,7 +6798,7 @@
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
@@ -6732,7 +6837,7 @@
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
@@ -6771,7 +6876,7 @@
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
@@ -6810,7 +6915,7 @@
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
@@ -6849,7 +6954,7 @@
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
@@ -6888,7 +6993,7 @@
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
@@ -6927,7 +7032,7 @@
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
@@ -6966,7 +7071,7 @@
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
@@ -7005,7 +7110,7 @@
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
@@ -7044,7 +7149,7 @@
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
@@ -7083,7 +7188,7 @@
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
@@ -7122,7 +7227,7 @@
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
@@ -7161,7 +7266,7 @@
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
@@ -7200,7 +7305,7 @@
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
@@ -7239,7 +7344,7 @@
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
@@ -7278,7 +7383,7 @@
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
@@ -7317,7 +7422,7 @@
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
@@ -7356,7 +7461,7 @@
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
@@ -7395,7 +7500,7 @@
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
@@ -7434,7 +7539,7 @@
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
@@ -7473,7 +7578,7 @@
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
@@ -7512,7 +7617,7 @@
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
@@ -7551,7 +7656,7 @@
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
@@ -7590,7 +7695,7 @@
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
@@ -7629,7 +7734,7 @@
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
@@ -7668,7 +7773,7 @@
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
@@ -7707,7 +7812,7 @@
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
@@ -7746,7 +7851,7 @@
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
@@ -7785,7 +7890,7 @@
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
@@ -7824,7 +7929,7 @@
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
@@ -7837,7 +7942,7 @@
       </c>
       <c r="D117" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>1a</v>
+        <v>1찰</v>
       </c>
       <c r="E117" s="14">
         <f t="shared" si="18"/>
@@ -7845,7 +7950,7 @@
       </c>
       <c r="F117" s="13" t="str" cm="1">
         <f t="array" ref="F117">IF(AND(E116&gt;100,E117&lt;100),INDEX(M:M,MATCH(F116,M:M,0)+1,0),F116)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
         <f t="shared" si="19"/>
@@ -7863,7 +7968,7 @@
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
@@ -7876,7 +7981,7 @@
       </c>
       <c r="D118" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>10a</v>
+        <v>10찰</v>
       </c>
       <c r="E118" s="14">
         <f t="shared" si="18"/>
@@ -7884,7 +7989,7 @@
       </c>
       <c r="F118" s="13" t="str" cm="1">
         <f t="array" ref="F118">IF(AND(E117&gt;100,E118&lt;100),INDEX(M:M,MATCH(F117,M:M,0)+1,0),F117)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
         <f t="shared" si="19"/>
@@ -7902,7 +8007,7 @@
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
@@ -7915,7 +8020,7 @@
       </c>
       <c r="D119" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>100a</v>
+        <v>100찰</v>
       </c>
       <c r="E119" s="14">
         <f t="shared" si="18"/>
@@ -7923,7 +8028,7 @@
       </c>
       <c r="F119" s="13" t="str" cm="1">
         <f t="array" ref="F119">IF(AND(E118&gt;100,E119&lt;100),INDEX(M:M,MATCH(F118,M:M,0)+1,0),F118)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
         <f t="shared" si="19"/>
@@ -7941,7 +8046,7 @@
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
@@ -7954,7 +8059,7 @@
       </c>
       <c r="D120" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>1000a</v>
+        <v>1000찰</v>
       </c>
       <c r="E120" s="14">
         <f t="shared" si="18"/>
@@ -7962,7 +8067,7 @@
       </c>
       <c r="F120" s="13" t="str" cm="1">
         <f t="array" ref="F120">IF(AND(E119&gt;100,E120&lt;100),INDEX(M:M,MATCH(F119,M:M,0)+1,0),F119)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
         <f t="shared" si="19"/>
@@ -7980,7 +8085,7 @@
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.3">
@@ -7993,7 +8098,7 @@
       </c>
       <c r="D121" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>1b</v>
+        <v>1교</v>
       </c>
       <c r="E121" s="14">
         <f t="shared" si="18"/>
@@ -8001,7 +8106,7 @@
       </c>
       <c r="F121" s="13" t="str" cm="1">
         <f t="array" ref="F121">IF(AND(E120&gt;100,E121&lt;100),INDEX(M:M,MATCH(F120,M:M,0)+1,0),F120)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
         <f t="shared" si="19"/>
@@ -8019,7 +8124,7 @@
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.3">
@@ -8032,7 +8137,7 @@
       </c>
       <c r="D122" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>10b</v>
+        <v>10교</v>
       </c>
       <c r="E122" s="14">
         <f t="shared" si="18"/>
@@ -8040,7 +8145,7 @@
       </c>
       <c r="F122" s="13" t="str" cm="1">
         <f t="array" ref="F122">IF(AND(E121&gt;100,E122&lt;100),INDEX(M:M,MATCH(F121,M:M,0)+1,0),F121)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
         <f t="shared" si="19"/>
@@ -8058,7 +8163,7 @@
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.3">
@@ -8071,7 +8176,7 @@
       </c>
       <c r="D123" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>100b</v>
+        <v>100교</v>
       </c>
       <c r="E123" s="14">
         <f t="shared" si="18"/>
@@ -8079,7 +8184,7 @@
       </c>
       <c r="F123" s="13" t="str" cm="1">
         <f t="array" ref="F123">IF(AND(E122&gt;100,E123&lt;100),INDEX(M:M,MATCH(F122,M:M,0)+1,0),F122)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
         <f t="shared" si="19"/>
@@ -8097,7 +8202,7 @@
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.3">
@@ -8110,7 +8215,7 @@
       </c>
       <c r="D124" s="14" t="str">
         <f t="shared" si="17"/>
-        <v>1000b</v>
+        <v>1000교</v>
       </c>
       <c r="E124" s="14">
         <f t="shared" si="18"/>
@@ -8118,7 +8223,7 @@
       </c>
       <c r="F124" s="13" t="str" cm="1">
         <f t="array" ref="F124">IF(AND(E123&gt;100,E124&lt;100),INDEX(M:M,MATCH(F123,M:M,0)+1,0),F123)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
         <f t="shared" si="19"/>
@@ -8136,7 +8241,7 @@
         <v>116</v>
       </c>
       <c r="K124" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TaegeukTitle.xlsx
+++ b/Assets/06.Table/TaegeukTitle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B60AEA2-4852-4880-A016-1CBCABD57086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37D3F9B-9726-4EFE-A1DB-F5A90F19B4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +256,10 @@
   </si>
   <si>
     <t>교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,11 +765,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -793,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2337,7 +2337,7 @@
         <v>1E+85</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C110" si="2">C74</f>
+        <f t="shared" ref="C75:C118" si="2">C74</f>
         <v>55</v>
       </c>
       <c r="D75">
@@ -3082,6 +3082,174 @@
       <c r="E110" t="str">
         <f>VLOOKUP(A110,Balance!B:I,8,FALSE)</f>
         <v>태극 109단</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <f>VLOOKUP(A111,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D111">
+        <f>VLOOKUP(A111,Balance!B:I,7,FALSE)</f>
+        <v>2.72</v>
+      </c>
+      <c r="E111" t="str">
+        <f>VLOOKUP(A111,Balance!B:I,8,FALSE)</f>
+        <v>태극 110단</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <f>VLOOKUP(A112,Balance!B:C,2,FALSE)</f>
+        <v>1E+122</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D112">
+        <f>VLOOKUP(A112,Balance!B:I,7,FALSE)</f>
+        <v>2.8</v>
+      </c>
+      <c r="E112" t="str">
+        <f>VLOOKUP(A112,Balance!B:I,8,FALSE)</f>
+        <v>태극 111단</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <f>VLOOKUP(A113,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999998E+122</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D113">
+        <f>VLOOKUP(A113,Balance!B:I,7,FALSE)</f>
+        <v>2.88</v>
+      </c>
+      <c r="E113" t="str">
+        <f>VLOOKUP(A113,Balance!B:I,8,FALSE)</f>
+        <v>태극 112단</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <f>VLOOKUP(A114,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D114">
+        <f>VLOOKUP(A114,Balance!B:I,7,FALSE)</f>
+        <v>2.96</v>
+      </c>
+      <c r="E114" t="str">
+        <f>VLOOKUP(A114,Balance!B:I,8,FALSE)</f>
+        <v>태극 113단</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <f>VLOOKUP(A115,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D115">
+        <f>VLOOKUP(A115,Balance!B:I,7,FALSE)</f>
+        <v>3.04</v>
+      </c>
+      <c r="E115" t="str">
+        <f>VLOOKUP(A115,Balance!B:I,8,FALSE)</f>
+        <v>태극 114단</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <f>VLOOKUP(A116,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D116">
+        <f>VLOOKUP(A116,Balance!B:I,7,FALSE)</f>
+        <v>3.12</v>
+      </c>
+      <c r="E116" t="str">
+        <f>VLOOKUP(A116,Balance!B:I,8,FALSE)</f>
+        <v>태극 115단</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <f>VLOOKUP(A117,Balance!B:C,2,FALSE)</f>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D117">
+        <f>VLOOKUP(A117,Balance!B:I,7,FALSE)</f>
+        <v>3.2</v>
+      </c>
+      <c r="E117" t="str">
+        <f>VLOOKUP(A117,Balance!B:I,8,FALSE)</f>
+        <v>태극 116단</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <f>VLOOKUP(A118,Balance!B:C,2,FALSE)</f>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D118">
+        <f>VLOOKUP(A118,Balance!B:I,7,FALSE)</f>
+        <v>3.28</v>
+      </c>
+      <c r="E118" t="str">
+        <f>VLOOKUP(A118,Balance!B:I,8,FALSE)</f>
+        <v>태극 117단</v>
       </c>
     </row>
   </sheetData>
@@ -3093,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
-  <dimension ref="A1:X124"/>
+  <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3187,10 +3355,10 @@
         <v>4</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>12</v>
@@ -3246,7 +3414,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="13" t="str">
-        <f t="shared" ref="G9:G40" si="2">VLOOKUP(F9,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F9,M:P,4,FALSE)</f>
         <v>1000000000000</v>
       </c>
       <c r="H9" s="13">
@@ -3260,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>16</v>
@@ -3282,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="14">
-        <f t="shared" ref="C10:C66" si="3">E10*G10</f>
+        <f t="shared" ref="C10:C66" si="2">E10*G10</f>
         <v>10000000000000</v>
       </c>
       <c r="D10" s="14" t="str">
@@ -3298,14 +3466,14 @@
         <v>조</v>
       </c>
       <c r="G10" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F10,M:P,4,FALSE)</f>
         <v>1000000000000</v>
       </c>
       <c r="H10" s="13">
         <v>2E-3</v>
       </c>
       <c r="I10" s="13" t="str">
-        <f t="shared" ref="I10:I73" si="4">K10&amp;" "&amp;J10&amp;"단"</f>
+        <f t="shared" ref="I10:I73" si="3">K10&amp;" "&amp;J10&amp;"단"</f>
         <v>태극 2단</v>
       </c>
       <c r="J10" s="13">
@@ -3313,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>17</v>
@@ -3335,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100000000000000</v>
       </c>
       <c r="D11" s="14" t="str">
@@ -3343,7 +3511,7 @@
         <v>100조</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" ref="E11:E66" si="5">IF(E10=1000,1,E10*10)</f>
+        <f t="shared" ref="E11:E66" si="4">IF(E10=1000,1,E10*10)</f>
         <v>100</v>
       </c>
       <c r="F11" s="13" t="str" cm="1">
@@ -3351,22 +3519,22 @@
         <v>조</v>
       </c>
       <c r="G11" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F11,M:P,4,FALSE)</f>
         <v>1000000000000</v>
       </c>
       <c r="H11" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I11" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 3단</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" ref="J11:J74" si="6">J10+1</f>
+        <f t="shared" ref="J11:J74" si="5">J10+1</f>
         <v>3</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>18</v>
@@ -3388,7 +3556,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000000000000</v>
       </c>
       <c r="D12" s="14" t="str">
@@ -3396,7 +3564,7 @@
         <v>1000조</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F12" s="13" t="str" cm="1">
@@ -3404,22 +3572,22 @@
         <v>조</v>
       </c>
       <c r="G12" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F12,M:P,4,FALSE)</f>
         <v>1000000000000</v>
       </c>
       <c r="H12" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I12" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 4단</v>
       </c>
       <c r="J12" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>19</v>
@@ -3432,7 +3600,7 @@
         <v>1E+20</v>
       </c>
       <c r="P12" s="14" t="str">
-        <f t="shared" ref="P12:P40" si="7">RIGHT(O12,N12)</f>
+        <f t="shared" ref="P12:P40" si="6">RIGHT(O12,N12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -3441,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+16</v>
       </c>
       <c r="D13" s="14" t="str">
@@ -3449,7 +3617,7 @@
         <v>1경</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F13" s="13" t="str" cm="1">
@@ -3457,22 +3625,22 @@
         <v>경</v>
       </c>
       <c r="G13" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F13,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
       <c r="H13" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I13" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 5단</v>
       </c>
       <c r="J13" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>20</v>
@@ -3485,7 +3653,7 @@
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="P13" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -3494,7 +3662,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+17</v>
       </c>
       <c r="D14" s="14" t="str">
@@ -3502,7 +3670,7 @@
         <v>10경</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F14" s="13" t="str" cm="1">
@@ -3510,22 +3678,22 @@
         <v>경</v>
       </c>
       <c r="G14" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F14,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
       <c r="H14" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I14" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 6단</v>
       </c>
       <c r="J14" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>21</v>
@@ -3538,7 +3706,7 @@
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="P14" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -3547,7 +3715,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+18</v>
       </c>
       <c r="D15" s="14" t="str">
@@ -3555,7 +3723,7 @@
         <v>100경</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F15" s="13" t="str" cm="1">
@@ -3563,22 +3731,22 @@
         <v>경</v>
       </c>
       <c r="G15" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F15,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
       <c r="H15" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I15" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 7단</v>
       </c>
       <c r="J15" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>22</v>
@@ -3591,7 +3759,7 @@
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="P15" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -3600,7 +3768,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+19</v>
       </c>
       <c r="D16" s="14" t="str">
@@ -3608,7 +3776,7 @@
         <v>1000경</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F16" s="13" t="str" cm="1">
@@ -3616,22 +3784,22 @@
         <v>경</v>
       </c>
       <c r="G16" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F16,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
       <c r="H16" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I16" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 8단</v>
       </c>
       <c r="J16" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>23</v>
@@ -3644,7 +3812,7 @@
         <v>1E+36</v>
       </c>
       <c r="P16" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -3653,7 +3821,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="D17" s="14" t="str">
@@ -3661,7 +3829,7 @@
         <v>1해</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F17" s="13" t="str" cm="1">
@@ -3669,22 +3837,22 @@
         <v>해</v>
       </c>
       <c r="G17" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F17,M:P,4,FALSE)</f>
         <v>1E+20</v>
       </c>
       <c r="H17" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I17" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 9단</v>
       </c>
       <c r="J17" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>24</v>
@@ -3697,7 +3865,7 @@
         <v>1E+40</v>
       </c>
       <c r="P17" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -3706,7 +3874,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+21</v>
       </c>
       <c r="D18" s="14" t="str">
@@ -3714,7 +3882,7 @@
         <v>10해</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F18" s="13" t="str" cm="1">
@@ -3722,22 +3890,22 @@
         <v>해</v>
       </c>
       <c r="G18" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F18,M:P,4,FALSE)</f>
         <v>1E+20</v>
       </c>
       <c r="H18" s="13">
         <v>0.01</v>
       </c>
       <c r="I18" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 10단</v>
       </c>
       <c r="J18" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>25</v>
@@ -3750,7 +3918,7 @@
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="P18" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -3759,7 +3927,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+22</v>
       </c>
       <c r="D19" s="14" t="str">
@@ -3767,7 +3935,7 @@
         <v>100해</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F19" s="13" t="str" cm="1">
@@ -3775,22 +3943,22 @@
         <v>해</v>
       </c>
       <c r="G19" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F19,M:P,4,FALSE)</f>
         <v>1E+20</v>
       </c>
       <c r="H19" s="13">
         <v>1.2E-2</v>
       </c>
       <c r="I19" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 11단</v>
       </c>
       <c r="J19" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>26</v>
@@ -3803,7 +3971,7 @@
         <v>1E+48</v>
       </c>
       <c r="P19" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -3812,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+22</v>
       </c>
       <c r="D20" s="14" t="str">
@@ -3820,7 +3988,7 @@
         <v>1000해</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F20" s="13" t="str" cm="1">
@@ -3828,22 +3996,22 @@
         <v>해</v>
       </c>
       <c r="G20" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F20,M:P,4,FALSE)</f>
         <v>1E+20</v>
       </c>
       <c r="H20" s="13">
         <v>1.4E-2</v>
       </c>
       <c r="I20" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 12단</v>
       </c>
       <c r="J20" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>27</v>
@@ -3856,7 +4024,7 @@
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="P20" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -3865,7 +4033,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="D21" s="14" t="str">
@@ -3873,7 +4041,7 @@
         <v>1자</v>
       </c>
       <c r="E21" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F21" s="13" t="str" cm="1">
@@ -3881,22 +4049,22 @@
         <v>자</v>
       </c>
       <c r="G21" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F21,M:P,4,FALSE)</f>
         <v>1E+24</v>
       </c>
       <c r="H21" s="13">
         <v>1.6E-2</v>
       </c>
       <c r="I21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 13단</v>
       </c>
       <c r="J21" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>28</v>
@@ -3909,7 +4077,7 @@
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="P21" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -3918,7 +4086,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999988E+24</v>
       </c>
       <c r="D22" s="14" t="str">
@@ -3926,7 +4094,7 @@
         <v>10자</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F22" s="13" t="str" cm="1">
@@ -3934,22 +4102,22 @@
         <v>자</v>
       </c>
       <c r="G22" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F22,M:P,4,FALSE)</f>
         <v>1E+24</v>
       </c>
       <c r="H22" s="13">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I22" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 14단</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>29</v>
@@ -3962,7 +4130,7 @@
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="P22" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -3971,7 +4139,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+26</v>
       </c>
       <c r="D23" s="14" t="str">
@@ -3979,7 +4147,7 @@
         <v>100자</v>
       </c>
       <c r="E23" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F23" s="13" t="str" cm="1">
@@ -3987,22 +4155,22 @@
         <v>자</v>
       </c>
       <c r="G23" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F23,M:P,4,FALSE)</f>
         <v>1E+24</v>
       </c>
       <c r="H23" s="13">
         <v>0.02</v>
       </c>
       <c r="I23" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 15단</v>
       </c>
       <c r="J23" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>30</v>
@@ -4015,7 +4183,7 @@
         <v>1E+64</v>
       </c>
       <c r="P23" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -4024,7 +4192,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+27</v>
       </c>
       <c r="D24" s="14" t="str">
@@ -4032,7 +4200,7 @@
         <v>1000자</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F24" s="13" t="str" cm="1">
@@ -4040,22 +4208,22 @@
         <v>자</v>
       </c>
       <c r="G24" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F24,M:P,4,FALSE)</f>
         <v>1E+24</v>
       </c>
       <c r="H24" s="13">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="I24" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 16단</v>
       </c>
       <c r="J24" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>31</v>
@@ -4068,7 +4236,7 @@
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="P24" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -4077,7 +4245,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="D25" s="14" t="str">
@@ -4085,7 +4253,7 @@
         <v>1양</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F25" s="13" t="str" cm="1">
@@ -4093,22 +4261,22 @@
         <v>양</v>
       </c>
       <c r="G25" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F25,M:P,4,FALSE)</f>
         <v>1E+28</v>
       </c>
       <c r="H25" s="13">
         <v>2.4E-2</v>
       </c>
       <c r="I25" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 17단</v>
       </c>
       <c r="J25" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>32</v>
@@ -4121,7 +4289,7 @@
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="P25" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -4130,7 +4298,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999991E+28</v>
       </c>
       <c r="D26" s="14" t="str">
@@ -4138,7 +4306,7 @@
         <v>10양</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F26" s="13" t="str" cm="1">
@@ -4146,22 +4314,22 @@
         <v>양</v>
       </c>
       <c r="G26" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F26,M:P,4,FALSE)</f>
         <v>1E+28</v>
       </c>
       <c r="H26" s="13">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I26" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 18단</v>
       </c>
       <c r="J26" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>33</v>
@@ -4174,7 +4342,7 @@
         <v>1E+76</v>
       </c>
       <c r="P26" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -4183,7 +4351,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+30</v>
       </c>
       <c r="D27" s="14" t="str">
@@ -4191,7 +4359,7 @@
         <v>100양</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F27" s="13" t="str" cm="1">
@@ -4199,22 +4367,22 @@
         <v>양</v>
       </c>
       <c r="G27" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F27,M:P,4,FALSE)</f>
         <v>1E+28</v>
       </c>
       <c r="H27" s="13">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I27" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 19단</v>
       </c>
       <c r="J27" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>34</v>
@@ -4227,7 +4395,7 @@
         <v>1E+80</v>
       </c>
       <c r="P27" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -4236,7 +4404,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+30</v>
       </c>
       <c r="D28" s="14" t="str">
@@ -4244,7 +4412,7 @@
         <v>1000양</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F28" s="13" t="str" cm="1">
@@ -4252,22 +4420,22 @@
         <v>양</v>
       </c>
       <c r="G28" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F28,M:P,4,FALSE)</f>
         <v>1E+28</v>
       </c>
       <c r="H28" s="13">
         <v>0.03</v>
       </c>
       <c r="I28" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 20단</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>35</v>
@@ -4280,7 +4448,7 @@
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="P28" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -4289,7 +4457,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="D29" s="14" t="str">
@@ -4297,7 +4465,7 @@
         <v>1구</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F29" s="13" t="str" cm="1">
@@ -4305,22 +4473,22 @@
         <v>구</v>
       </c>
       <c r="G29" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F29,M:P,4,FALSE)</f>
         <v>1E+32</v>
       </c>
       <c r="H29" s="13">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I29" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 21단</v>
       </c>
       <c r="J29" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>15</v>
@@ -4333,7 +4501,7 @@
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="P29" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -4342,7 +4510,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+33</v>
       </c>
       <c r="D30" s="14" t="str">
@@ -4350,7 +4518,7 @@
         <v>10구</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F30" s="13" t="str" cm="1">
@@ -4358,22 +4526,22 @@
         <v>구</v>
       </c>
       <c r="G30" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F30,M:P,4,FALSE)</f>
         <v>1E+32</v>
       </c>
       <c r="H30" s="13">
         <v>0.04</v>
       </c>
       <c r="I30" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 22단</v>
       </c>
       <c r="J30" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>36</v>
@@ -4386,7 +4554,7 @@
         <v>1E+92</v>
       </c>
       <c r="P30" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -4395,7 +4563,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+34</v>
       </c>
       <c r="D31" s="14" t="str">
@@ -4403,7 +4571,7 @@
         <v>100구</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F31" s="13" t="str" cm="1">
@@ -4411,22 +4579,22 @@
         <v>구</v>
       </c>
       <c r="G31" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F31,M:P,4,FALSE)</f>
         <v>1E+32</v>
       </c>
       <c r="H31" s="13">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I31" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 23단</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>37</v>
@@ -4439,7 +4607,7 @@
         <v>1E+96</v>
       </c>
       <c r="P31" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -4448,7 +4616,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999997E+34</v>
       </c>
       <c r="D32" s="14" t="str">
@@ -4456,7 +4624,7 @@
         <v>1000구</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F32" s="13" t="str" cm="1">
@@ -4464,22 +4632,22 @@
         <v>구</v>
       </c>
       <c r="G32" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F32,M:P,4,FALSE)</f>
         <v>1E+32</v>
       </c>
       <c r="H32" s="13">
         <v>0.05</v>
       </c>
       <c r="I32" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 24단</v>
       </c>
       <c r="J32" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>38</v>
@@ -4492,7 +4660,7 @@
         <v>1E+100</v>
       </c>
       <c r="P32" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -4501,7 +4669,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="D33" s="14" t="str">
@@ -4509,7 +4677,7 @@
         <v>1간</v>
       </c>
       <c r="E33" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F33" s="13" t="str" cm="1">
@@ -4517,22 +4685,22 @@
         <v>간</v>
       </c>
       <c r="G33" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F33,M:P,4,FALSE)</f>
         <v>1E+36</v>
       </c>
       <c r="H33" s="13">
         <v>5.5E-2</v>
       </c>
       <c r="I33" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 25단</v>
       </c>
       <c r="J33" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M33" s="13" t="s">
         <v>39</v>
@@ -4545,7 +4713,7 @@
         <v>1E+104</v>
       </c>
       <c r="P33" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="9"/>
@@ -4562,7 +4730,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+37</v>
       </c>
       <c r="D34" s="14" t="str">
@@ -4570,7 +4738,7 @@
         <v>10간</v>
       </c>
       <c r="E34" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F34" s="13" t="str" cm="1">
@@ -4578,22 +4746,22 @@
         <v>간</v>
       </c>
       <c r="G34" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F34,M:P,4,FALSE)</f>
         <v>1E+36</v>
       </c>
       <c r="H34" s="13">
         <v>0.06</v>
       </c>
       <c r="I34" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 26단</v>
       </c>
       <c r="J34" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M34" s="13" t="s">
         <v>40</v>
@@ -4606,7 +4774,7 @@
         <v>1E+108</v>
       </c>
       <c r="P34" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="9"/>
@@ -4623,7 +4791,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+37</v>
       </c>
       <c r="D35" s="14" t="str">
@@ -4631,7 +4799,7 @@
         <v>100간</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F35" s="13" t="str" cm="1">
@@ -4639,22 +4807,22 @@
         <v>간</v>
       </c>
       <c r="G35" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F35,M:P,4,FALSE)</f>
         <v>1E+36</v>
       </c>
       <c r="H35" s="13">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="I35" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 27단</v>
       </c>
       <c r="J35" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M35" s="13" t="s">
         <v>41</v>
@@ -4667,7 +4835,7 @@
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="P35" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+112</v>
       </c>
       <c r="Q35" s="9"/>
@@ -4684,7 +4852,7 @@
         <v>27</v>
       </c>
       <c r="C36" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+39</v>
       </c>
       <c r="D36" s="14" t="str">
@@ -4692,7 +4860,7 @@
         <v>1000간</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F36" s="13" t="str" cm="1">
@@ -4700,22 +4868,22 @@
         <v>간</v>
       </c>
       <c r="G36" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F36,M:P,4,FALSE)</f>
         <v>1E+36</v>
       </c>
       <c r="H36" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I36" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 28단</v>
       </c>
       <c r="J36" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M36" s="13" t="s">
         <v>42</v>
@@ -4728,7 +4896,7 @@
         <v>1E+116</v>
       </c>
       <c r="P36" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="9"/>
@@ -4745,7 +4913,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="D37" s="14" t="str">
@@ -4753,7 +4921,7 @@
         <v>1정</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F37" s="13" t="str" cm="1">
@@ -4761,25 +4929,25 @@
         <v>정</v>
       </c>
       <c r="G37" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F37,M:P,4,FALSE)</f>
         <v>1E+40</v>
       </c>
       <c r="H37" s="13">
         <v>0.08</v>
       </c>
       <c r="I37" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 29단</v>
       </c>
       <c r="J37" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="K37" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="N37" s="13">
         <v>120</v>
@@ -4789,7 +4957,7 @@
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="P37" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+120</v>
       </c>
       <c r="Q37" s="9"/>
@@ -4806,7 +4974,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+41</v>
       </c>
       <c r="D38" s="14" t="str">
@@ -4814,7 +4982,7 @@
         <v>10정</v>
       </c>
       <c r="E38" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F38" s="13" t="str" cm="1">
@@ -4822,25 +4990,25 @@
         <v>정</v>
       </c>
       <c r="G38" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F38,M:P,4,FALSE)</f>
         <v>1E+40</v>
       </c>
       <c r="H38" s="13">
         <v>0.09</v>
       </c>
       <c r="I38" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 30단</v>
       </c>
       <c r="J38" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N38" s="13">
         <v>124</v>
@@ -4850,7 +5018,7 @@
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="P38" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+124</v>
       </c>
       <c r="Q38" s="9"/>
@@ -4867,7 +5035,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+42</v>
       </c>
       <c r="D39" s="14" t="str">
@@ -4875,7 +5043,7 @@
         <v>100정</v>
       </c>
       <c r="E39" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F39" s="13" t="str" cm="1">
@@ -4883,25 +5051,25 @@
         <v>정</v>
       </c>
       <c r="G39" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F39,M:P,4,FALSE)</f>
         <v>1E+40</v>
       </c>
       <c r="H39" s="13">
         <v>0.1</v>
       </c>
       <c r="I39" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 31단</v>
       </c>
       <c r="J39" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N39" s="13">
         <v>128</v>
@@ -4911,7 +5079,7 @@
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="P39" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -4920,7 +5088,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+43</v>
       </c>
       <c r="D40" s="14" t="str">
@@ -4928,7 +5096,7 @@
         <v>1000정</v>
       </c>
       <c r="E40" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F40" s="13" t="str" cm="1">
@@ -4936,25 +5104,25 @@
         <v>정</v>
       </c>
       <c r="G40" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(F40,M:P,4,FALSE)</f>
         <v>1E+40</v>
       </c>
       <c r="H40" s="13">
         <v>0.11</v>
       </c>
       <c r="I40" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 32단</v>
       </c>
       <c r="J40" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N40" s="13">
         <v>132</v>
@@ -4964,7 +5132,7 @@
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -4973,7 +5141,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="D41" s="14" t="str">
@@ -4981,7 +5149,7 @@
         <v>1재</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F41" s="13" t="str" cm="1">
@@ -4989,22 +5157,22 @@
         <v>재</v>
       </c>
       <c r="G41" s="13" t="str">
-        <f t="shared" ref="G41:G72" si="8">VLOOKUP(F41,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F41,M:P,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="H41" s="13">
         <v>0.12</v>
       </c>
       <c r="I41" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 33단</v>
       </c>
       <c r="J41" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.3">
@@ -5012,7 +5180,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+45</v>
       </c>
       <c r="D42" s="14" t="str">
@@ -5020,7 +5188,7 @@
         <v>10재</v>
       </c>
       <c r="E42" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F42" s="13" t="str" cm="1">
@@ -5028,22 +5196,22 @@
         <v>재</v>
       </c>
       <c r="G42" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F42,M:P,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="H42" s="13">
         <v>0.13</v>
       </c>
       <c r="I42" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 34단</v>
       </c>
       <c r="J42" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.3">
@@ -5051,7 +5219,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+46</v>
       </c>
       <c r="D43" s="14" t="str">
@@ -5059,7 +5227,7 @@
         <v>100재</v>
       </c>
       <c r="E43" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F43" s="13" t="str" cm="1">
@@ -5067,22 +5235,22 @@
         <v>재</v>
       </c>
       <c r="G43" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F43,M:P,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="H43" s="13">
         <v>0.14000000000000001</v>
       </c>
       <c r="I43" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 35단</v>
       </c>
       <c r="J43" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.3">
@@ -5090,7 +5258,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+47</v>
       </c>
       <c r="D44" s="14" t="str">
@@ -5098,7 +5266,7 @@
         <v>1000재</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F44" s="13" t="str" cm="1">
@@ -5106,22 +5274,22 @@
         <v>재</v>
       </c>
       <c r="G44" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F44,M:P,4,FALSE)</f>
         <v>1E+44</v>
       </c>
       <c r="H44" s="13">
         <v>0.15</v>
       </c>
       <c r="I44" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 36단</v>
       </c>
       <c r="J44" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.3">
@@ -5129,7 +5297,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+48</v>
       </c>
       <c r="D45" s="14" t="str">
@@ -5137,7 +5305,7 @@
         <v>1극</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F45" s="13" t="str" cm="1">
@@ -5145,22 +5313,22 @@
         <v>극</v>
       </c>
       <c r="G45" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F45,M:P,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="H45" s="13">
         <v>0.16</v>
       </c>
       <c r="I45" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 37단</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.3">
@@ -5168,7 +5336,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+49</v>
       </c>
       <c r="D46" s="14" t="str">
@@ -5176,7 +5344,7 @@
         <v>10극</v>
       </c>
       <c r="E46" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F46" s="13" t="str" cm="1">
@@ -5184,22 +5352,22 @@
         <v>극</v>
       </c>
       <c r="G46" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F46,M:P,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="H46" s="13">
         <v>0.17</v>
       </c>
       <c r="I46" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 38단</v>
       </c>
       <c r="J46" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.3">
@@ -5207,7 +5375,7 @@
         <v>38</v>
       </c>
       <c r="C47" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+50</v>
       </c>
       <c r="D47" s="14" t="str">
@@ -5215,7 +5383,7 @@
         <v>100극</v>
       </c>
       <c r="E47" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F47" s="13" t="str" cm="1">
@@ -5223,22 +5391,22 @@
         <v>극</v>
       </c>
       <c r="G47" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F47,M:P,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="H47" s="13">
         <v>0.18</v>
       </c>
       <c r="I47" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 39단</v>
       </c>
       <c r="J47" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.3">
@@ -5246,7 +5414,7 @@
         <v>39</v>
       </c>
       <c r="C48" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+50</v>
       </c>
       <c r="D48" s="14" t="str">
@@ -5254,7 +5422,7 @@
         <v>1000극</v>
       </c>
       <c r="E48" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F48" s="13" t="str" cm="1">
@@ -5262,22 +5430,22 @@
         <v>극</v>
       </c>
       <c r="G48" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F48,M:P,4,FALSE)</f>
         <v>1E+48</v>
       </c>
       <c r="H48" s="13">
         <v>0.19</v>
       </c>
       <c r="I48" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 40단</v>
       </c>
       <c r="J48" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -5285,7 +5453,7 @@
         <v>40</v>
       </c>
       <c r="C49" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="D49" s="14" t="str">
@@ -5293,7 +5461,7 @@
         <v>1항</v>
       </c>
       <c r="E49" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F49" s="13" t="str" cm="1">
@@ -5301,22 +5469,22 @@
         <v>항</v>
       </c>
       <c r="G49" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F49,M:P,4,FALSE)</f>
         <v>1E+52</v>
       </c>
       <c r="H49" s="13">
         <v>0.2</v>
       </c>
       <c r="I49" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 41단</v>
       </c>
       <c r="J49" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
@@ -5324,7 +5492,7 @@
         <v>41</v>
       </c>
       <c r="C50" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+52</v>
       </c>
       <c r="D50" s="14" t="str">
@@ -5332,7 +5500,7 @@
         <v>10항</v>
       </c>
       <c r="E50" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F50" s="13" t="str" cm="1">
@@ -5340,22 +5508,22 @@
         <v>항</v>
       </c>
       <c r="G50" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F50,M:P,4,FALSE)</f>
         <v>1E+52</v>
       </c>
       <c r="H50" s="13">
         <v>0.22</v>
       </c>
       <c r="I50" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 42단</v>
       </c>
       <c r="J50" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
@@ -5363,7 +5531,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+54</v>
       </c>
       <c r="D51" s="14" t="str">
@@ -5371,7 +5539,7 @@
         <v>100항</v>
       </c>
       <c r="E51" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F51" s="13" t="str" cm="1">
@@ -5379,22 +5547,22 @@
         <v>항</v>
       </c>
       <c r="G51" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F51,M:P,4,FALSE)</f>
         <v>1E+52</v>
       </c>
       <c r="H51" s="13">
         <v>0.24</v>
       </c>
       <c r="I51" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 43단</v>
       </c>
       <c r="J51" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
@@ -5402,7 +5570,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+55</v>
       </c>
       <c r="D52" s="14" t="str">
@@ -5410,7 +5578,7 @@
         <v>1000항</v>
       </c>
       <c r="E52" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F52" s="13" t="str" cm="1">
@@ -5418,22 +5586,22 @@
         <v>항</v>
       </c>
       <c r="G52" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F52,M:P,4,FALSE)</f>
         <v>1E+52</v>
       </c>
       <c r="H52" s="13">
         <v>0.26</v>
       </c>
       <c r="I52" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 44단</v>
       </c>
       <c r="J52" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
@@ -5441,7 +5609,7 @@
         <v>44</v>
       </c>
       <c r="C53" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="D53" s="14" t="str">
@@ -5449,7 +5617,7 @@
         <v>1아</v>
       </c>
       <c r="E53" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F53" s="13" t="str" cm="1">
@@ -5457,22 +5625,22 @@
         <v>아</v>
       </c>
       <c r="G53" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F53,M:P,4,FALSE)</f>
         <v>1E+56</v>
       </c>
       <c r="H53" s="13">
         <v>0.28000000000000003</v>
       </c>
       <c r="I53" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 45단</v>
       </c>
       <c r="J53" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
@@ -5480,7 +5648,7 @@
         <v>45</v>
       </c>
       <c r="C54" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+57</v>
       </c>
       <c r="D54" s="14" t="str">
@@ -5488,7 +5656,7 @@
         <v>10아</v>
       </c>
       <c r="E54" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F54" s="13" t="str" cm="1">
@@ -5496,22 +5664,22 @@
         <v>아</v>
       </c>
       <c r="G54" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F54,M:P,4,FALSE)</f>
         <v>1E+56</v>
       </c>
       <c r="H54" s="13">
         <v>0.3</v>
       </c>
       <c r="I54" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 46단</v>
       </c>
       <c r="J54" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
@@ -5519,7 +5687,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+58</v>
       </c>
       <c r="D55" s="14" t="str">
@@ -5527,7 +5695,7 @@
         <v>100아</v>
       </c>
       <c r="E55" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F55" s="13" t="str" cm="1">
@@ -5535,22 +5703,22 @@
         <v>아</v>
       </c>
       <c r="G55" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F55,M:P,4,FALSE)</f>
         <v>1E+56</v>
       </c>
       <c r="H55" s="13">
         <v>0.32</v>
       </c>
       <c r="I55" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 47단</v>
       </c>
       <c r="J55" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
@@ -5558,7 +5726,7 @@
         <v>47</v>
       </c>
       <c r="C56" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+59</v>
       </c>
       <c r="D56" s="14" t="str">
@@ -5566,7 +5734,7 @@
         <v>1000아</v>
       </c>
       <c r="E56" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F56" s="13" t="str" cm="1">
@@ -5574,22 +5742,22 @@
         <v>아</v>
       </c>
       <c r="G56" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F56,M:P,4,FALSE)</f>
         <v>1E+56</v>
       </c>
       <c r="H56" s="13">
         <v>0.34</v>
       </c>
       <c r="I56" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 48단</v>
       </c>
       <c r="J56" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
@@ -5597,7 +5765,7 @@
         <v>48</v>
       </c>
       <c r="C57" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="D57" s="14" t="str">
@@ -5605,7 +5773,7 @@
         <v>1나</v>
       </c>
       <c r="E57" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F57" s="13" t="str" cm="1">
@@ -5613,22 +5781,22 @@
         <v>나</v>
       </c>
       <c r="G57" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F57,M:P,4,FALSE)</f>
         <v>1E+60</v>
       </c>
       <c r="H57" s="13">
         <v>0.36</v>
       </c>
       <c r="I57" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 49단</v>
       </c>
       <c r="J57" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
@@ -5636,7 +5804,7 @@
         <v>49</v>
       </c>
       <c r="C58" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+60</v>
       </c>
       <c r="D58" s="14" t="str">
@@ -5644,7 +5812,7 @@
         <v>10나</v>
       </c>
       <c r="E58" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F58" s="13" t="str" cm="1">
@@ -5652,22 +5820,22 @@
         <v>나</v>
       </c>
       <c r="G58" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F58,M:P,4,FALSE)</f>
         <v>1E+60</v>
       </c>
       <c r="H58" s="13">
         <v>0.38</v>
       </c>
       <c r="I58" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 50단</v>
       </c>
       <c r="J58" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
@@ -5675,7 +5843,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+61</v>
       </c>
       <c r="D59" s="14" t="str">
@@ -5683,7 +5851,7 @@
         <v>100나</v>
       </c>
       <c r="E59" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F59" s="13" t="str" cm="1">
@@ -5691,22 +5859,22 @@
         <v>나</v>
       </c>
       <c r="G59" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F59,M:P,4,FALSE)</f>
         <v>1E+60</v>
       </c>
       <c r="H59" s="13">
         <v>0.4</v>
       </c>
       <c r="I59" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 51단</v>
       </c>
       <c r="J59" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
@@ -5714,7 +5882,7 @@
         <v>51</v>
       </c>
       <c r="C60" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999988E+62</v>
       </c>
       <c r="D60" s="14" t="str">
@@ -5722,7 +5890,7 @@
         <v>1000나</v>
       </c>
       <c r="E60" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F60" s="13" t="str" cm="1">
@@ -5730,22 +5898,22 @@
         <v>나</v>
       </c>
       <c r="G60" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F60,M:P,4,FALSE)</f>
         <v>1E+60</v>
       </c>
       <c r="H60" s="13">
         <v>0.42</v>
       </c>
       <c r="I60" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 52단</v>
       </c>
       <c r="J60" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
@@ -5753,7 +5921,7 @@
         <v>52</v>
       </c>
       <c r="C61" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+64</v>
       </c>
       <c r="D61" s="14" t="str">
@@ -5761,7 +5929,7 @@
         <v>1불</v>
       </c>
       <c r="E61" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F61" s="13" t="str" cm="1">
@@ -5769,22 +5937,22 @@
         <v>불</v>
       </c>
       <c r="G61" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F61,M:P,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="H61" s="13">
         <v>0.44</v>
       </c>
       <c r="I61" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 53단</v>
       </c>
       <c r="J61" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
@@ -5792,7 +5960,7 @@
         <v>53</v>
       </c>
       <c r="C62" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+64</v>
       </c>
       <c r="D62" s="14" t="str">
@@ -5800,7 +5968,7 @@
         <v>10불</v>
       </c>
       <c r="E62" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F62" s="13" t="str" cm="1">
@@ -5808,22 +5976,22 @@
         <v>불</v>
       </c>
       <c r="G62" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F62,M:P,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="H62" s="13">
         <v>0.46</v>
       </c>
       <c r="I62" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 54단</v>
       </c>
       <c r="J62" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
@@ -5831,7 +5999,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+65</v>
       </c>
       <c r="D63" s="14" t="str">
@@ -5839,7 +6007,7 @@
         <v>100불</v>
       </c>
       <c r="E63" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F63" s="13" t="str" cm="1">
@@ -5847,22 +6015,22 @@
         <v>불</v>
       </c>
       <c r="G63" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F63,M:P,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="H63" s="13">
         <v>0.48</v>
       </c>
       <c r="I63" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 55단</v>
       </c>
       <c r="J63" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
@@ -5870,7 +6038,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+66</v>
       </c>
       <c r="D64" s="14" t="str">
@@ -5878,7 +6046,7 @@
         <v>1000불</v>
       </c>
       <c r="E64" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="F64" s="13" t="str" cm="1">
@@ -5886,22 +6054,22 @@
         <v>불</v>
       </c>
       <c r="G64" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F64,M:P,4,FALSE)</f>
         <v>1E+64</v>
       </c>
       <c r="H64" s="13">
         <v>0.5</v>
       </c>
       <c r="I64" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 56단</v>
       </c>
       <c r="J64" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
@@ -5909,7 +6077,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="D65" s="14" t="str">
@@ -5917,7 +6085,7 @@
         <v>1무</v>
       </c>
       <c r="E65" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F65" s="13" t="str" cm="1">
@@ -5925,22 +6093,22 @@
         <v>무</v>
       </c>
       <c r="G65" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F65,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="H65" s="13">
         <v>0.52</v>
       </c>
       <c r="I65" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 57단</v>
       </c>
       <c r="J65" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
@@ -5948,7 +6116,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999988E+68</v>
       </c>
       <c r="D66" s="14" t="str">
@@ -5956,7 +6124,7 @@
         <v>10무</v>
       </c>
       <c r="E66" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F66" s="13" t="str" cm="1">
@@ -5964,22 +6132,22 @@
         <v>무</v>
       </c>
       <c r="G66" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F66,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="H66" s="13">
         <v>0.54</v>
       </c>
       <c r="I66" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 58단</v>
       </c>
       <c r="J66" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
@@ -5987,15 +6155,15 @@
         <v>58</v>
       </c>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:C111" si="9">E67*G67</f>
+        <f t="shared" ref="C67:C111" si="7">E67*G67</f>
         <v>9.9999999999999992E+69</v>
       </c>
       <c r="D67" s="14" t="str">
-        <f t="shared" ref="D67:D111" si="10">E67&amp;F67</f>
+        <f t="shared" ref="D67:D111" si="8">E67&amp;F67</f>
         <v>100무</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ref="E67:E111" si="11">IF(E66=1000,1,E66*10)</f>
+        <f t="shared" ref="E67:E111" si="9">IF(E66=1000,1,E66*10)</f>
         <v>100</v>
       </c>
       <c r="F67" s="13" t="str" cm="1">
@@ -6003,22 +6171,22 @@
         <v>무</v>
       </c>
       <c r="G67" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F67,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="H67" s="13">
         <v>0.56000000000000005</v>
       </c>
       <c r="I67" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 59단</v>
       </c>
       <c r="J67" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
@@ -6026,15 +6194,15 @@
         <v>59</v>
       </c>
       <c r="C68" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999992E+70</v>
+      </c>
+      <c r="D68" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1000무</v>
+      </c>
+      <c r="E68" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999992E+70</v>
-      </c>
-      <c r="D68" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1000무</v>
-      </c>
-      <c r="E68" s="14">
-        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F68" s="13" t="str" cm="1">
@@ -6042,22 +6210,22 @@
         <v>무</v>
       </c>
       <c r="G68" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F68,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="H68" s="13">
         <v>0.57999999999999996</v>
       </c>
       <c r="I68" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 60단</v>
       </c>
       <c r="J68" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
@@ -6065,15 +6233,15 @@
         <v>60</v>
       </c>
       <c r="C69" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="D69" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1대</v>
+      </c>
+      <c r="E69" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999994E+71</v>
-      </c>
-      <c r="D69" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1대</v>
-      </c>
-      <c r="E69" s="14">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F69" s="13" t="str" cm="1">
@@ -6081,22 +6249,22 @@
         <v>대</v>
       </c>
       <c r="G69" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F69,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="H69" s="13">
         <v>0.6</v>
       </c>
       <c r="I69" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 61단</v>
       </c>
       <c r="J69" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
@@ -6104,15 +6272,15 @@
         <v>61</v>
       </c>
       <c r="C70" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999998E+72</v>
+      </c>
+      <c r="D70" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>10대</v>
+      </c>
+      <c r="E70" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999998E+72</v>
-      </c>
-      <c r="D70" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>10대</v>
-      </c>
-      <c r="E70" s="14">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F70" s="13" t="str" cm="1">
@@ -6120,22 +6288,22 @@
         <v>대</v>
       </c>
       <c r="G70" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F70,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="H70" s="13">
         <v>0.62</v>
       </c>
       <c r="I70" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 62단</v>
       </c>
       <c r="J70" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
@@ -6143,15 +6311,15 @@
         <v>62</v>
       </c>
       <c r="C71" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999995E+73</v>
+      </c>
+      <c r="D71" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>100대</v>
+      </c>
+      <c r="E71" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999995E+73</v>
-      </c>
-      <c r="D71" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>100대</v>
-      </c>
-      <c r="E71" s="14">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F71" s="13" t="str" cm="1">
@@ -6159,22 +6327,22 @@
         <v>대</v>
       </c>
       <c r="G71" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F71,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="H71" s="13">
         <v>0.64</v>
       </c>
       <c r="I71" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 63단</v>
       </c>
       <c r="J71" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
@@ -6182,15 +6350,15 @@
         <v>63</v>
       </c>
       <c r="C72" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999993E+74</v>
+      </c>
+      <c r="D72" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1000대</v>
+      </c>
+      <c r="E72" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999993E+74</v>
-      </c>
-      <c r="D72" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1000대</v>
-      </c>
-      <c r="E72" s="14">
-        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F72" s="13" t="str" cm="1">
@@ -6198,22 +6366,22 @@
         <v>대</v>
       </c>
       <c r="G72" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f>VLOOKUP(F72,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="H72" s="13">
         <v>0.66</v>
       </c>
       <c r="I72" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 64단</v>
       </c>
       <c r="J72" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
@@ -6221,15 +6389,15 @@
         <v>64</v>
       </c>
       <c r="C73" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+76</v>
+      </c>
+      <c r="D73" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1겁</v>
+      </c>
+      <c r="E73" s="14">
         <f t="shared" si="9"/>
-        <v>1E+76</v>
-      </c>
-      <c r="D73" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1겁</v>
-      </c>
-      <c r="E73" s="14">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F73" s="13" t="str" cm="1">
@@ -6237,22 +6405,22 @@
         <v>겁</v>
       </c>
       <c r="G73" s="13" t="str">
-        <f t="shared" ref="G73:G104" si="12">VLOOKUP(F73,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F73,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H73" s="13">
         <v>0.68</v>
       </c>
       <c r="I73" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>태극 65단</v>
       </c>
       <c r="J73" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
@@ -6260,15 +6428,15 @@
         <v>65</v>
       </c>
       <c r="C74" s="14">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+77</v>
+      </c>
+      <c r="D74" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>10겁</v>
+      </c>
+      <c r="E74" s="14">
         <f t="shared" si="9"/>
-        <v>1.0000000000000001E+77</v>
-      </c>
-      <c r="D74" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>10겁</v>
-      </c>
-      <c r="E74" s="14">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F74" s="13" t="str" cm="1">
@@ -6276,22 +6444,22 @@
         <v>겁</v>
       </c>
       <c r="G74" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F74,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H74" s="13">
         <v>0.7</v>
       </c>
       <c r="I74" s="13" t="str">
-        <f t="shared" ref="I74:I111" si="13">K74&amp;" "&amp;J74&amp;"단"</f>
+        <f t="shared" ref="I74:I111" si="10">K74&amp;" "&amp;J74&amp;"단"</f>
         <v>태극 66단</v>
       </c>
       <c r="J74" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
@@ -6299,15 +6467,15 @@
         <v>66</v>
       </c>
       <c r="C75" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+78</v>
+      </c>
+      <c r="D75" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>100겁</v>
+      </c>
+      <c r="E75" s="14">
         <f t="shared" si="9"/>
-        <v>1E+78</v>
-      </c>
-      <c r="D75" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>100겁</v>
-      </c>
-      <c r="E75" s="14">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F75" s="13" t="str" cm="1">
@@ -6315,22 +6483,22 @@
         <v>겁</v>
       </c>
       <c r="G75" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F75,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H75" s="13">
         <v>0.72</v>
       </c>
       <c r="I75" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 67단</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:J124" si="14">J74+1</f>
+        <f t="shared" ref="J75:J132" si="11">J74+1</f>
         <v>67</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
@@ -6338,15 +6506,15 @@
         <v>67</v>
       </c>
       <c r="C76" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999997E+78</v>
+      </c>
+      <c r="D76" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1000겁</v>
+      </c>
+      <c r="E76" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999997E+78</v>
-      </c>
-      <c r="D76" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1000겁</v>
-      </c>
-      <c r="E76" s="14">
-        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F76" s="13" t="str" cm="1">
@@ -6354,22 +6522,22 @@
         <v>겁</v>
       </c>
       <c r="G76" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F76,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="H76" s="13">
         <v>0.74</v>
       </c>
       <c r="I76" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 68단</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
@@ -6377,15 +6545,15 @@
         <v>68</v>
       </c>
       <c r="C77" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+80</v>
+      </c>
+      <c r="D77" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1업</v>
+      </c>
+      <c r="E77" s="14">
         <f t="shared" si="9"/>
-        <v>1E+80</v>
-      </c>
-      <c r="D77" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1업</v>
-      </c>
-      <c r="E77" s="14">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F77" s="13" t="str" cm="1">
@@ -6393,22 +6561,22 @@
         <v>업</v>
       </c>
       <c r="G77" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F77,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="H77" s="13">
         <v>0.76</v>
       </c>
       <c r="I77" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 69단</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
@@ -6416,15 +6584,15 @@
         <v>69</v>
       </c>
       <c r="C78" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999992E+80</v>
+      </c>
+      <c r="D78" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>10업</v>
+      </c>
+      <c r="E78" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999992E+80</v>
-      </c>
-      <c r="D78" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>10업</v>
-      </c>
-      <c r="E78" s="14">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F78" s="13" t="str" cm="1">
@@ -6432,22 +6600,22 @@
         <v>업</v>
       </c>
       <c r="G78" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F78,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="H78" s="13">
         <v>0.78</v>
       </c>
       <c r="I78" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 70단</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
@@ -6455,15 +6623,15 @@
         <v>70</v>
       </c>
       <c r="C79" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999996E+81</v>
+      </c>
+      <c r="D79" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>100업</v>
+      </c>
+      <c r="E79" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999996E+81</v>
-      </c>
-      <c r="D79" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>100업</v>
-      </c>
-      <c r="E79" s="14">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F79" s="13" t="str" cm="1">
@@ -6471,22 +6639,22 @@
         <v>업</v>
       </c>
       <c r="G79" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F79,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="H79" s="13">
         <v>0.8</v>
       </c>
       <c r="I79" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 71단</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
@@ -6494,15 +6662,15 @@
         <v>71</v>
       </c>
       <c r="C80" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+83</v>
+      </c>
+      <c r="D80" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1000업</v>
+      </c>
+      <c r="E80" s="14">
         <f t="shared" si="9"/>
-        <v>1E+83</v>
-      </c>
-      <c r="D80" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1000업</v>
-      </c>
-      <c r="E80" s="14">
-        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F80" s="13" t="str" cm="1">
@@ -6510,22 +6678,22 @@
         <v>업</v>
       </c>
       <c r="G80" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F80,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="H80" s="13">
         <v>0.84</v>
       </c>
       <c r="I80" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 72단</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
@@ -6533,15 +6701,15 @@
         <v>72</v>
       </c>
       <c r="C81" s="14">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="D81" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1긍</v>
+      </c>
+      <c r="E81" s="14">
         <f t="shared" si="9"/>
-        <v>1.0000000000000001E+84</v>
-      </c>
-      <c r="D81" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1긍</v>
-      </c>
-      <c r="E81" s="14">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F81" s="13" t="str" cm="1">
@@ -6549,22 +6717,22 @@
         <v>긍</v>
       </c>
       <c r="G81" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F81,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="H81" s="13">
         <v>0.88</v>
       </c>
       <c r="I81" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 73단</v>
       </c>
       <c r="J81" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
@@ -6572,15 +6740,15 @@
         <v>73</v>
       </c>
       <c r="C82" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+85</v>
+      </c>
+      <c r="D82" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>10긍</v>
+      </c>
+      <c r="E82" s="14">
         <f t="shared" si="9"/>
-        <v>1E+85</v>
-      </c>
-      <c r="D82" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>10긍</v>
-      </c>
-      <c r="E82" s="14">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F82" s="13" t="str" cm="1">
@@ -6588,22 +6756,22 @@
         <v>긍</v>
       </c>
       <c r="G82" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F82,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="H82" s="13">
         <v>0.92</v>
       </c>
       <c r="I82" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 74단</v>
       </c>
       <c r="J82" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
@@ -6611,15 +6779,15 @@
         <v>74</v>
       </c>
       <c r="C83" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+86</v>
+      </c>
+      <c r="D83" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>100긍</v>
+      </c>
+      <c r="E83" s="14">
         <f t="shared" si="9"/>
-        <v>1E+86</v>
-      </c>
-      <c r="D83" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>100긍</v>
-      </c>
-      <c r="E83" s="14">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F83" s="13" t="str" cm="1">
@@ -6627,22 +6795,22 @@
         <v>긍</v>
       </c>
       <c r="G83" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F83,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="H83" s="13">
         <v>0.96</v>
       </c>
       <c r="I83" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 75단</v>
       </c>
       <c r="J83" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
@@ -6650,15 +6818,15 @@
         <v>75</v>
       </c>
       <c r="C84" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999996E+86</v>
+      </c>
+      <c r="D84" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1000긍</v>
+      </c>
+      <c r="E84" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999996E+86</v>
-      </c>
-      <c r="D84" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1000긍</v>
-      </c>
-      <c r="E84" s="14">
-        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F84" s="13" t="str" cm="1">
@@ -6666,22 +6834,22 @@
         <v>긍</v>
       </c>
       <c r="G84" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F84,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="H84" s="13">
         <v>1</v>
       </c>
       <c r="I84" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 76단</v>
       </c>
       <c r="J84" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
@@ -6689,15 +6857,15 @@
         <v>76</v>
       </c>
       <c r="C85" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="D85" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1갈</v>
+      </c>
+      <c r="E85" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999996E+87</v>
-      </c>
-      <c r="D85" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1갈</v>
-      </c>
-      <c r="E85" s="14">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F85" s="13" t="str" cm="1">
@@ -6705,22 +6873,22 @@
         <v>갈</v>
       </c>
       <c r="G85" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F85,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="H85" s="13">
         <v>1.04</v>
       </c>
       <c r="I85" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 77단</v>
       </c>
       <c r="J85" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
@@ -6728,15 +6896,15 @@
         <v>77</v>
       </c>
       <c r="C86" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999999E+88</v>
+      </c>
+      <c r="D86" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>10갈</v>
+      </c>
+      <c r="E86" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999999E+88</v>
-      </c>
-      <c r="D86" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>10갈</v>
-      </c>
-      <c r="E86" s="14">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F86" s="13" t="str" cm="1">
@@ -6744,22 +6912,22 @@
         <v>갈</v>
       </c>
       <c r="G86" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F86,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="H86" s="13">
         <v>1.08</v>
       </c>
       <c r="I86" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 78단</v>
       </c>
       <c r="J86" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="K86" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
@@ -6767,15 +6935,15 @@
         <v>78</v>
       </c>
       <c r="C87" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999997E+89</v>
+      </c>
+      <c r="D87" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>100갈</v>
+      </c>
+      <c r="E87" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999997E+89</v>
-      </c>
-      <c r="D87" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>100갈</v>
-      </c>
-      <c r="E87" s="14">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F87" s="13" t="str" cm="1">
@@ -6783,22 +6951,22 @@
         <v>갈</v>
       </c>
       <c r="G87" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F87,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="H87" s="13">
         <v>1.1200000000000001</v>
       </c>
       <c r="I87" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 79단</v>
       </c>
       <c r="J87" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="K87" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
@@ -6806,15 +6974,15 @@
         <v>79</v>
       </c>
       <c r="C88" s="14">
+        <f t="shared" si="7"/>
+        <v>9.999999999999999E+90</v>
+      </c>
+      <c r="D88" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1000갈</v>
+      </c>
+      <c r="E88" s="14">
         <f t="shared" si="9"/>
-        <v>9.999999999999999E+90</v>
-      </c>
-      <c r="D88" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1000갈</v>
-      </c>
-      <c r="E88" s="14">
-        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F88" s="13" t="str" cm="1">
@@ -6822,22 +6990,22 @@
         <v>갈</v>
       </c>
       <c r="G88" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F88,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="H88" s="13">
         <v>1.1599999999999999</v>
       </c>
       <c r="I88" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 80단</v>
       </c>
       <c r="J88" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
@@ -6845,15 +7013,15 @@
         <v>80</v>
       </c>
       <c r="C89" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+92</v>
+      </c>
+      <c r="D89" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1라</v>
+      </c>
+      <c r="E89" s="14">
         <f t="shared" si="9"/>
-        <v>1E+92</v>
-      </c>
-      <c r="D89" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1라</v>
-      </c>
-      <c r="E89" s="14">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F89" s="13" t="str" cm="1">
@@ -6861,22 +7029,22 @@
         <v>라</v>
       </c>
       <c r="G89" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F89,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="H89" s="13">
         <v>1.2</v>
       </c>
       <c r="I89" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 81단</v>
       </c>
       <c r="J89" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="K89" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
@@ -6884,15 +7052,15 @@
         <v>81</v>
       </c>
       <c r="C90" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+93</v>
+      </c>
+      <c r="D90" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>10라</v>
+      </c>
+      <c r="E90" s="14">
         <f t="shared" si="9"/>
-        <v>1E+93</v>
-      </c>
-      <c r="D90" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>10라</v>
-      </c>
-      <c r="E90" s="14">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F90" s="13" t="str" cm="1">
@@ -6900,22 +7068,22 @@
         <v>라</v>
       </c>
       <c r="G90" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F90,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="H90" s="13">
         <v>1.24</v>
       </c>
       <c r="I90" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 82단</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
@@ -6923,15 +7091,15 @@
         <v>82</v>
       </c>
       <c r="C91" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+94</v>
+      </c>
+      <c r="D91" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>100라</v>
+      </c>
+      <c r="E91" s="14">
         <f t="shared" si="9"/>
-        <v>1E+94</v>
-      </c>
-      <c r="D91" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>100라</v>
-      </c>
-      <c r="E91" s="14">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F91" s="13" t="str" cm="1">
@@ -6939,22 +7107,22 @@
         <v>라</v>
       </c>
       <c r="G91" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F91,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="H91" s="13">
         <v>1.28</v>
       </c>
       <c r="I91" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 83단</v>
       </c>
       <c r="J91" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
@@ -6962,15 +7130,15 @@
         <v>83</v>
       </c>
       <c r="C92" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+95</v>
+      </c>
+      <c r="D92" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1000라</v>
+      </c>
+      <c r="E92" s="14">
         <f t="shared" si="9"/>
-        <v>1E+95</v>
-      </c>
-      <c r="D92" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1000라</v>
-      </c>
-      <c r="E92" s="14">
-        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F92" s="13" t="str" cm="1">
@@ -6978,22 +7146,22 @@
         <v>라</v>
       </c>
       <c r="G92" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F92,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="H92" s="13">
         <v>1.32</v>
       </c>
       <c r="I92" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 84단</v>
       </c>
       <c r="J92" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
@@ -7001,15 +7169,15 @@
         <v>84</v>
       </c>
       <c r="C93" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+96</v>
+      </c>
+      <c r="D93" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1가</v>
+      </c>
+      <c r="E93" s="14">
         <f t="shared" si="9"/>
-        <v>1E+96</v>
-      </c>
-      <c r="D93" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1가</v>
-      </c>
-      <c r="E93" s="14">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F93" s="13" t="str" cm="1">
@@ -7017,22 +7185,22 @@
         <v>가</v>
       </c>
       <c r="G93" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F93,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="H93" s="13">
         <v>1.36</v>
       </c>
       <c r="I93" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 85단</v>
       </c>
       <c r="J93" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
@@ -7040,15 +7208,15 @@
         <v>85</v>
       </c>
       <c r="C94" s="14">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="D94" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>10가</v>
+      </c>
+      <c r="E94" s="14">
         <f t="shared" si="9"/>
-        <v>1.0000000000000001E+97</v>
-      </c>
-      <c r="D94" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>10가</v>
-      </c>
-      <c r="E94" s="14">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F94" s="13" t="str" cm="1">
@@ -7056,22 +7224,22 @@
         <v>가</v>
       </c>
       <c r="G94" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F94,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="H94" s="13">
         <v>1.4</v>
       </c>
       <c r="I94" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 86단</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="K94" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
@@ -7079,15 +7247,15 @@
         <v>86</v>
       </c>
       <c r="C95" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+98</v>
+      </c>
+      <c r="D95" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>100가</v>
+      </c>
+      <c r="E95" s="14">
         <f t="shared" si="9"/>
-        <v>1E+98</v>
-      </c>
-      <c r="D95" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>100가</v>
-      </c>
-      <c r="E95" s="14">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F95" s="13" t="str" cm="1">
@@ -7095,22 +7263,22 @@
         <v>가</v>
       </c>
       <c r="G95" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F95,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="H95" s="13">
         <v>1.44</v>
       </c>
       <c r="I95" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 87단</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
@@ -7118,15 +7286,15 @@
         <v>87</v>
       </c>
       <c r="C96" s="14">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+99</v>
+      </c>
+      <c r="D96" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1000가</v>
+      </c>
+      <c r="E96" s="14">
         <f t="shared" si="9"/>
-        <v>1.0000000000000001E+99</v>
-      </c>
-      <c r="D96" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1000가</v>
-      </c>
-      <c r="E96" s="14">
-        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F96" s="13" t="str" cm="1">
@@ -7134,22 +7302,22 @@
         <v>가</v>
       </c>
       <c r="G96" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F96,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="H96" s="13">
         <v>1.48</v>
       </c>
       <c r="I96" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 88단</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
@@ -7157,15 +7325,15 @@
         <v>88</v>
       </c>
       <c r="C97" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+100</v>
+      </c>
+      <c r="D97" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1언</v>
+      </c>
+      <c r="E97" s="14">
         <f t="shared" si="9"/>
-        <v>1E+100</v>
-      </c>
-      <c r="D97" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1언</v>
-      </c>
-      <c r="E97" s="14">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F97" s="13" t="str" cm="1">
@@ -7173,22 +7341,22 @@
         <v>언</v>
       </c>
       <c r="G97" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F97,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="H97" s="13">
         <v>1.52</v>
       </c>
       <c r="I97" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 89단</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
@@ -7196,15 +7364,15 @@
         <v>89</v>
       </c>
       <c r="C98" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999998E+100</v>
+      </c>
+      <c r="D98" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>10언</v>
+      </c>
+      <c r="E98" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999998E+100</v>
-      </c>
-      <c r="D98" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>10언</v>
-      </c>
-      <c r="E98" s="14">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F98" s="13" t="str" cm="1">
@@ -7212,22 +7380,22 @@
         <v>언</v>
       </c>
       <c r="G98" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F98,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="H98" s="13">
         <v>1.56</v>
       </c>
       <c r="I98" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 90단</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
@@ -7235,15 +7403,15 @@
         <v>90</v>
       </c>
       <c r="C99" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999998E+101</v>
+      </c>
+      <c r="D99" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>100언</v>
+      </c>
+      <c r="E99" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999998E+101</v>
-      </c>
-      <c r="D99" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>100언</v>
-      </c>
-      <c r="E99" s="14">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F99" s="13" t="str" cm="1">
@@ -7251,22 +7419,22 @@
         <v>언</v>
       </c>
       <c r="G99" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F99,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="H99" s="13">
         <v>1.6</v>
       </c>
       <c r="I99" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 91단</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="K99" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
@@ -7274,15 +7442,15 @@
         <v>91</v>
       </c>
       <c r="C100" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+103</v>
+      </c>
+      <c r="D100" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1000언</v>
+      </c>
+      <c r="E100" s="14">
         <f t="shared" si="9"/>
-        <v>1E+103</v>
-      </c>
-      <c r="D100" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1000언</v>
-      </c>
-      <c r="E100" s="14">
-        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F100" s="13" t="str" cm="1">
@@ -7290,22 +7458,22 @@
         <v>언</v>
       </c>
       <c r="G100" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F100,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="H100" s="13">
         <v>1.64</v>
       </c>
       <c r="I100" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 92단</v>
       </c>
       <c r="J100" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
@@ -7313,15 +7481,15 @@
         <v>92</v>
       </c>
       <c r="C101" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+104</v>
+      </c>
+      <c r="D101" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1승</v>
+      </c>
+      <c r="E101" s="14">
         <f t="shared" si="9"/>
-        <v>1E+104</v>
-      </c>
-      <c r="D101" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1승</v>
-      </c>
-      <c r="E101" s="14">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F101" s="13" t="str" cm="1">
@@ -7329,22 +7497,22 @@
         <v>승</v>
       </c>
       <c r="G101" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F101,M:P,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="H101" s="13">
         <v>1.68</v>
       </c>
       <c r="I101" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 93단</v>
       </c>
       <c r="J101" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
@@ -7352,15 +7520,15 @@
         <v>93</v>
       </c>
       <c r="C102" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999994E+104</v>
+      </c>
+      <c r="D102" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>10승</v>
+      </c>
+      <c r="E102" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999994E+104</v>
-      </c>
-      <c r="D102" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>10승</v>
-      </c>
-      <c r="E102" s="14">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F102" s="13" t="str" cm="1">
@@ -7368,22 +7536,22 @@
         <v>승</v>
       </c>
       <c r="G102" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F102,M:P,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="H102" s="13">
         <v>1.72</v>
       </c>
       <c r="I102" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 94단</v>
       </c>
       <c r="J102" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
@@ -7391,15 +7559,15 @@
         <v>94</v>
       </c>
       <c r="C103" s="14">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+106</v>
+      </c>
+      <c r="D103" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>100승</v>
+      </c>
+      <c r="E103" s="14">
         <f t="shared" si="9"/>
-        <v>1.0000000000000001E+106</v>
-      </c>
-      <c r="D103" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>100승</v>
-      </c>
-      <c r="E103" s="14">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F103" s="13" t="str" cm="1">
@@ -7407,22 +7575,22 @@
         <v>승</v>
       </c>
       <c r="G103" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F103,M:P,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="H103" s="13">
         <v>1.76</v>
       </c>
       <c r="I103" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 95단</v>
       </c>
       <c r="J103" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
@@ -7430,15 +7598,15 @@
         <v>95</v>
       </c>
       <c r="C104" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999997E+106</v>
+      </c>
+      <c r="D104" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1000승</v>
+      </c>
+      <c r="E104" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999997E+106</v>
-      </c>
-      <c r="D104" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1000승</v>
-      </c>
-      <c r="E104" s="14">
-        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F104" s="13" t="str" cm="1">
@@ -7446,22 +7614,22 @@
         <v>승</v>
       </c>
       <c r="G104" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(F104,M:P,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="H104" s="13">
         <v>1.8</v>
       </c>
       <c r="I104" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 96단</v>
       </c>
       <c r="J104" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="K104" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
@@ -7469,15 +7637,15 @@
         <v>96</v>
       </c>
       <c r="C105" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+108</v>
+      </c>
+      <c r="D105" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1마</v>
+      </c>
+      <c r="E105" s="14">
         <f t="shared" si="9"/>
-        <v>1E+108</v>
-      </c>
-      <c r="D105" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1마</v>
-      </c>
-      <c r="E105" s="14">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F105" s="13" t="str" cm="1">
@@ -7485,22 +7653,22 @@
         <v>마</v>
       </c>
       <c r="G105" s="13" t="str">
-        <f t="shared" ref="G105:G111" si="15">VLOOKUP(F105,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F105,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H105" s="13">
         <v>1.84</v>
       </c>
       <c r="I105" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 97단</v>
       </c>
       <c r="J105" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="K105" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
@@ -7508,15 +7676,15 @@
         <v>97</v>
       </c>
       <c r="C106" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999998E+108</v>
+      </c>
+      <c r="D106" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>10마</v>
+      </c>
+      <c r="E106" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999998E+108</v>
-      </c>
-      <c r="D106" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>10마</v>
-      </c>
-      <c r="E106" s="14">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F106" s="13" t="str" cm="1">
@@ -7524,22 +7692,22 @@
         <v>마</v>
       </c>
       <c r="G106" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(F106,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H106" s="13">
         <v>1.88</v>
       </c>
       <c r="I106" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 98단</v>
       </c>
       <c r="J106" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="K106" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
@@ -7547,15 +7715,15 @@
         <v>98</v>
       </c>
       <c r="C107" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+110</v>
+      </c>
+      <c r="D107" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>100마</v>
+      </c>
+      <c r="E107" s="14">
         <f t="shared" si="9"/>
-        <v>1E+110</v>
-      </c>
-      <c r="D107" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>100마</v>
-      </c>
-      <c r="E107" s="14">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F107" s="13" t="str" cm="1">
@@ -7563,22 +7731,22 @@
         <v>마</v>
       </c>
       <c r="G107" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(F107,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H107" s="13">
         <v>1.92</v>
       </c>
       <c r="I107" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 99단</v>
       </c>
       <c r="J107" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
@@ -7586,15 +7754,15 @@
         <v>99</v>
       </c>
       <c r="C108" s="14">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000001E+111</v>
+      </c>
+      <c r="D108" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1000마</v>
+      </c>
+      <c r="E108" s="14">
         <f t="shared" si="9"/>
-        <v>1.0000000000000001E+111</v>
-      </c>
-      <c r="D108" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1000마</v>
-      </c>
-      <c r="E108" s="14">
-        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F108" s="13" t="str" cm="1">
@@ -7602,22 +7770,22 @@
         <v>마</v>
       </c>
       <c r="G108" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(F108,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="H108" s="13">
         <v>1.96</v>
       </c>
       <c r="I108" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 100단</v>
       </c>
       <c r="J108" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="K108" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
@@ -7625,15 +7793,15 @@
         <v>100</v>
       </c>
       <c r="C109" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="D109" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>1살</v>
+      </c>
+      <c r="E109" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999993E+111</v>
-      </c>
-      <c r="D109" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>1살</v>
-      </c>
-      <c r="E109" s="14">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F109" s="13" t="str" cm="1">
@@ -7641,22 +7809,22 @@
         <v>살</v>
       </c>
       <c r="G109" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(F109,M:P,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="H109" s="13">
         <v>2</v>
       </c>
       <c r="I109" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 101단</v>
       </c>
       <c r="J109" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
@@ -7664,15 +7832,15 @@
         <v>101</v>
       </c>
       <c r="C110" s="14">
+        <f t="shared" si="7"/>
+        <v>1E+113</v>
+      </c>
+      <c r="D110" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>10살</v>
+      </c>
+      <c r="E110" s="14">
         <f t="shared" si="9"/>
-        <v>1E+113</v>
-      </c>
-      <c r="D110" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>10살</v>
-      </c>
-      <c r="E110" s="14">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="F110" s="13" t="str" cm="1">
@@ -7680,22 +7848,22 @@
         <v>살</v>
       </c>
       <c r="G110" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(F110,M:P,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="H110" s="13">
         <v>2.08</v>
       </c>
       <c r="I110" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 102단</v>
       </c>
       <c r="J110" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
@@ -7703,15 +7871,15 @@
         <v>102</v>
       </c>
       <c r="C111" s="14">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999988E+113</v>
+      </c>
+      <c r="D111" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>100살</v>
+      </c>
+      <c r="E111" s="14">
         <f t="shared" si="9"/>
-        <v>9.9999999999999988E+113</v>
-      </c>
-      <c r="D111" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>100살</v>
-      </c>
-      <c r="E111" s="14">
-        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="F111" s="13" t="str" cm="1">
@@ -7719,22 +7887,22 @@
         <v>살</v>
       </c>
       <c r="G111" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(F111,M:P,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="H111" s="13">
         <v>2.16</v>
       </c>
       <c r="I111" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>태극 103단</v>
       </c>
       <c r="J111" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
@@ -7742,15 +7910,15 @@
         <v>103</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" ref="C112:C124" si="16">E112*G112</f>
+        <f t="shared" ref="C112:C124" si="12">E112*G112</f>
         <v>1E+115</v>
       </c>
       <c r="D112" s="14" t="str">
-        <f t="shared" ref="D112:D124" si="17">E112&amp;F112</f>
+        <f t="shared" ref="D112:D124" si="13">E112&amp;F112</f>
         <v>1000살</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ref="E112:E124" si="18">IF(E111=1000,1,E111*10)</f>
+        <f t="shared" ref="E112:E132" si="14">IF(E111=1000,1,E111*10)</f>
         <v>1000</v>
       </c>
       <c r="F112" s="13" t="str" cm="1">
@@ -7758,22 +7926,22 @@
         <v>살</v>
       </c>
       <c r="G112" s="13" t="str">
-        <f t="shared" ref="G112:G124" si="19">VLOOKUP(F112,M:P,4,FALSE)</f>
+        <f>VLOOKUP(F112,M:P,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="H112" s="13">
         <v>2.2400000000000002</v>
       </c>
       <c r="I112" s="13" t="str">
-        <f t="shared" ref="I112:I124" si="20">K112&amp;" "&amp;J112&amp;"단"</f>
+        <f t="shared" ref="I112:I124" si="15">K112&amp;" "&amp;J112&amp;"단"</f>
         <v>태극 104단</v>
       </c>
       <c r="J112" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
@@ -7781,15 +7949,15 @@
         <v>104</v>
       </c>
       <c r="C113" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="D113" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1섬</v>
       </c>
       <c r="E113" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F113" s="13" t="str" cm="1">
@@ -7797,22 +7965,22 @@
         <v>섬</v>
       </c>
       <c r="G113" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F113,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="H113" s="13">
         <v>2.3199999999999998</v>
       </c>
       <c r="I113" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>태극 105단</v>
       </c>
       <c r="J113" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="K113" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
@@ -7820,15 +7988,15 @@
         <v>105</v>
       </c>
       <c r="C114" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D114" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>10섬</v>
       </c>
       <c r="E114" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="F114" s="13" t="str" cm="1">
@@ -7836,22 +8004,22 @@
         <v>섬</v>
       </c>
       <c r="G114" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F114,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="H114" s="13">
         <v>2.4</v>
       </c>
       <c r="I114" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>태극 106단</v>
       </c>
       <c r="J114" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
       <c r="K114" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
@@ -7859,15 +8027,15 @@
         <v>106</v>
       </c>
       <c r="C115" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D115" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>100섬</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="F115" s="13" t="str" cm="1">
@@ -7875,22 +8043,22 @@
         <v>섬</v>
       </c>
       <c r="G115" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F115,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="H115" s="13">
         <v>2.48</v>
       </c>
       <c r="I115" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>태극 107단</v>
       </c>
       <c r="J115" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>107</v>
       </c>
       <c r="K115" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
@@ -7898,15 +8066,15 @@
         <v>107</v>
       </c>
       <c r="C116" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D116" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1000섬</v>
       </c>
       <c r="E116" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="F116" s="13" t="str" cm="1">
@@ -7914,22 +8082,22 @@
         <v>섬</v>
       </c>
       <c r="G116" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F116,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="H116" s="13">
         <v>2.56</v>
       </c>
       <c r="I116" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>태극 108단</v>
       </c>
       <c r="J116" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>108</v>
       </c>
       <c r="K116" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
@@ -7937,15 +8105,15 @@
         <v>108</v>
       </c>
       <c r="C117" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D117" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1찰</v>
       </c>
       <c r="E117" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F117" s="13" t="str" cm="1">
@@ -7953,22 +8121,22 @@
         <v>찰</v>
       </c>
       <c r="G117" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F117,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="H117" s="13">
         <v>2.64</v>
       </c>
       <c r="I117" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>태극 109단</v>
       </c>
       <c r="J117" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
@@ -7976,15 +8144,15 @@
         <v>109</v>
       </c>
       <c r="C118" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D118" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>10찰</v>
       </c>
       <c r="E118" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="F118" s="13" t="str" cm="1">
@@ -7992,22 +8160,22 @@
         <v>찰</v>
       </c>
       <c r="G118" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F118,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="H118" s="13">
         <v>2.72</v>
       </c>
       <c r="I118" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>태극 110단</v>
       </c>
       <c r="J118" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
@@ -8015,15 +8183,15 @@
         <v>110</v>
       </c>
       <c r="C119" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1E+122</v>
       </c>
       <c r="D119" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>100찰</v>
       </c>
       <c r="E119" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="F119" s="13" t="str" cm="1">
@@ -8031,22 +8199,22 @@
         <v>찰</v>
       </c>
       <c r="G119" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F119,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="H119" s="13">
         <v>2.8</v>
       </c>
       <c r="I119" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>태극 111단</v>
       </c>
       <c r="J119" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>111</v>
       </c>
       <c r="K119" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
@@ -8054,15 +8222,15 @@
         <v>111</v>
       </c>
       <c r="C120" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D120" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1000찰</v>
       </c>
       <c r="E120" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="F120" s="13" t="str" cm="1">
@@ -8070,22 +8238,22 @@
         <v>찰</v>
       </c>
       <c r="G120" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F120,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="H120" s="13">
         <v>2.88</v>
       </c>
       <c r="I120" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>태극 112단</v>
       </c>
       <c r="J120" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="K120" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.3">
@@ -8093,15 +8261,15 @@
         <v>112</v>
       </c>
       <c r="C121" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D121" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1교</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F121" s="13" t="str" cm="1">
@@ -8109,22 +8277,22 @@
         <v>교</v>
       </c>
       <c r="G121" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F121,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="H121" s="13">
         <v>2.96</v>
       </c>
       <c r="I121" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>태극 113단</v>
       </c>
       <c r="J121" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="K121" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.3">
@@ -8132,15 +8300,15 @@
         <v>113</v>
       </c>
       <c r="C122" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D122" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>10교</v>
       </c>
       <c r="E122" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="F122" s="13" t="str" cm="1">
@@ -8148,22 +8316,22 @@
         <v>교</v>
       </c>
       <c r="G122" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F122,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="H122" s="13">
         <v>3.04</v>
       </c>
       <c r="I122" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>태극 114단</v>
       </c>
       <c r="J122" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
       <c r="K122" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.3">
@@ -8171,15 +8339,15 @@
         <v>114</v>
       </c>
       <c r="C123" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D123" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>100교</v>
       </c>
       <c r="E123" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="F123" s="13" t="str" cm="1">
@@ -8187,22 +8355,22 @@
         <v>교</v>
       </c>
       <c r="G123" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F123,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="H123" s="13">
         <v>3.12</v>
       </c>
       <c r="I123" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>태극 115단</v>
       </c>
       <c r="J123" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>115</v>
       </c>
       <c r="K123" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.3">
@@ -8210,15 +8378,15 @@
         <v>115</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D124" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1000교</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="F124" s="13" t="str" cm="1">
@@ -8226,22 +8394,334 @@
         <v>교</v>
       </c>
       <c r="G124" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f>VLOOKUP(F124,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="H124" s="13">
         <v>3.2</v>
       </c>
       <c r="I124" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>태극 116단</v>
+      </c>
+      <c r="J124" s="13">
+        <f t="shared" si="11"/>
+        <v>116</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B125" s="13">
+        <v>116</v>
+      </c>
+      <c r="C125" s="14">
+        <f t="shared" ref="C125:C130" si="16">E125*G125</f>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="D125" s="14" t="str">
+        <f t="shared" ref="D125:D130" si="17">E125&amp;F125</f>
+        <v>1위</v>
+      </c>
+      <c r="E125" s="14">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F125" s="13" t="str" cm="1">
+        <f t="array" ref="F125">IF(AND(E124&gt;100,E125&lt;100),INDEX(M:M,MATCH(F124,M:M,0)+1,0),F124)</f>
+        <v>위</v>
+      </c>
+      <c r="G125" s="13" t="str">
+        <f>VLOOKUP(F125,M:P,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+      <c r="H125" s="13">
+        <v>3.28</v>
+      </c>
+      <c r="I125" s="13" t="str">
+        <f t="shared" ref="I125:I130" si="18">K125&amp;" "&amp;J125&amp;"단"</f>
+        <v>태극 117단</v>
+      </c>
+      <c r="J125" s="13">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="K125" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B126" s="13">
+        <v>117</v>
+      </c>
+      <c r="C126" s="14">
+        <f t="shared" si="16"/>
+        <v>1E+129</v>
+      </c>
+      <c r="D126" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>10위</v>
+      </c>
+      <c r="E126" s="14">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="F126" s="13" t="str" cm="1">
+        <f t="array" ref="F126">IF(AND(E125&gt;100,E126&lt;100),INDEX(M:M,MATCH(F125,M:M,0)+1,0),F125)</f>
+        <v>위</v>
+      </c>
+      <c r="G126" s="13" t="str">
+        <f>VLOOKUP(F126,M:P,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+      <c r="H126" s="13">
+        <v>3.36</v>
+      </c>
+      <c r="I126" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v>태극 118단</v>
+      </c>
+      <c r="J126" s="13">
+        <f t="shared" si="11"/>
+        <v>118</v>
+      </c>
+      <c r="K126" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B127" s="13">
+        <v>118</v>
+      </c>
+      <c r="C127" s="14">
+        <f t="shared" si="16"/>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="D127" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>100위</v>
+      </c>
+      <c r="E127" s="14">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="F127" s="13" t="str" cm="1">
+        <f t="array" ref="F127">IF(AND(E126&gt;100,E127&lt;100),INDEX(M:M,MATCH(F126,M:M,0)+1,0),F126)</f>
+        <v>위</v>
+      </c>
+      <c r="G127" s="13" t="str">
+        <f>VLOOKUP(F127,M:P,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+      <c r="H127" s="13">
+        <v>3.44</v>
+      </c>
+      <c r="I127" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v>태극 119단</v>
+      </c>
+      <c r="J127" s="13">
+        <f t="shared" si="11"/>
+        <v>119</v>
+      </c>
+      <c r="K127" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B128" s="13">
+        <v>119</v>
+      </c>
+      <c r="C128" s="14">
+        <f t="shared" si="16"/>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="D128" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>1000위</v>
+      </c>
+      <c r="E128" s="14">
+        <f t="shared" si="14"/>
+        <v>1000</v>
+      </c>
+      <c r="F128" s="13" t="str" cm="1">
+        <f t="array" ref="F128">IF(AND(E127&gt;100,E128&lt;100),INDEX(M:M,MATCH(F127,M:M,0)+1,0),F127)</f>
+        <v>위</v>
+      </c>
+      <c r="G128" s="13" t="str">
+        <f>VLOOKUP(F128,M:P,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+      <c r="H128" s="13">
+        <v>3.52</v>
+      </c>
+      <c r="I128" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v>태극 120단</v>
+      </c>
+      <c r="J128" s="13">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="K128" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="13">
+        <v>120</v>
+      </c>
+      <c r="C129" s="14">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D129" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>1d</v>
+      </c>
+      <c r="E129" s="14">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F129" s="13" t="str" cm="1">
+        <f t="array" ref="F129">IF(AND(E128&gt;100,E129&lt;100),INDEX(M:M,MATCH(F128,M:M,0)+1,0),F128)</f>
+        <v>d</v>
+      </c>
+      <c r="G129" s="13" t="str">
+        <f>VLOOKUP(F129,M:P,4,FALSE)</f>
+        <v>1E+132</v>
+      </c>
+      <c r="H129" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="I129" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v>태극 121단</v>
+      </c>
+      <c r="J129" s="13">
+        <f t="shared" si="11"/>
+        <v>121</v>
+      </c>
+      <c r="K129" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B130" s="13">
+        <v>121</v>
+      </c>
+      <c r="C130" s="14">
+        <f t="shared" si="16"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D130" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>10d</v>
+      </c>
+      <c r="E130" s="14">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="F130" s="13" t="str" cm="1">
+        <f t="array" ref="F130">IF(AND(E129&gt;100,E130&lt;100),INDEX(M:M,MATCH(F129,M:M,0)+1,0),F129)</f>
+        <v>d</v>
+      </c>
+      <c r="G130" s="13" t="str">
+        <f>VLOOKUP(F130,M:P,4,FALSE)</f>
+        <v>1E+132</v>
+      </c>
+      <c r="H130" s="13">
+        <v>3.68</v>
+      </c>
+      <c r="I130" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v>태극 122단</v>
+      </c>
+      <c r="J130" s="13">
+        <f t="shared" si="11"/>
+        <v>122</v>
+      </c>
+      <c r="K130" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B131" s="13">
+        <v>122</v>
+      </c>
+      <c r="C131" s="14">
+        <f t="shared" ref="C131:C132" si="19">E131*G131</f>
+        <v>9.9999999999999992E+133</v>
+      </c>
+      <c r="D131" s="14" t="str">
+        <f t="shared" ref="D131:D132" si="20">E131&amp;F131</f>
+        <v>100d</v>
+      </c>
+      <c r="E131" s="14">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="F131" s="13" t="str" cm="1">
+        <f t="array" ref="F131">IF(AND(E130&gt;100,E131&lt;100),INDEX(M:M,MATCH(F130,M:M,0)+1,0),F130)</f>
+        <v>d</v>
+      </c>
+      <c r="G131" s="13" t="str">
+        <f>VLOOKUP(F131,M:P,4,FALSE)</f>
+        <v>1E+132</v>
+      </c>
+      <c r="H131" s="13">
+        <v>3.76</v>
+      </c>
+      <c r="I131" s="13" t="str">
+        <f t="shared" ref="I131:I132" si="21">K131&amp;" "&amp;J131&amp;"단"</f>
+        <v>태극 123단</v>
+      </c>
+      <c r="J131" s="13">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="K131" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B132" s="13">
+        <v>123</v>
+      </c>
+      <c r="C132" s="14">
+        <f t="shared" si="19"/>
+        <v>9.9999999999999996E+134</v>
+      </c>
+      <c r="D132" s="14" t="str">
         <f t="shared" si="20"/>
-        <v>태극 116단</v>
-      </c>
-      <c r="J124" s="13">
+        <v>1000d</v>
+      </c>
+      <c r="E132" s="14">
         <f t="shared" si="14"/>
-        <v>116</v>
-      </c>
-      <c r="K124" s="13" t="s">
-        <v>48</v>
+        <v>1000</v>
+      </c>
+      <c r="F132" s="13" t="str" cm="1">
+        <f t="array" ref="F132">IF(AND(E131&gt;100,E132&lt;100),INDEX(M:M,MATCH(F131,M:M,0)+1,0),F131)</f>
+        <v>d</v>
+      </c>
+      <c r="G132" s="13" t="str">
+        <f>VLOOKUP(F132,M:P,4,FALSE)</f>
+        <v>1E+132</v>
+      </c>
+      <c r="H132" s="13">
+        <v>3.84</v>
+      </c>
+      <c r="I132" s="13" t="str">
+        <f t="shared" si="21"/>
+        <v>태극 124단</v>
+      </c>
+      <c r="J132" s="13">
+        <f t="shared" si="11"/>
+        <v>124</v>
+      </c>
+      <c r="K132" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
